--- a/ecard-template.xlsx
+++ b/ecard-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Infos" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Grades" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Infos" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Grades" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Answer_" vbProcedure="false">#REF!</definedName>
@@ -1219,9 +1219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>498240</xdr:colOff>
+      <xdr:colOff>497880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1235,7 +1235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4914000" y="683640"/>
-          <a:ext cx="875520" cy="802800"/>
+          <a:ext cx="875160" cy="802440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,9 +1256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1272,7 +1272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1132560" y="709560"/>
-          <a:ext cx="869400" cy="829440"/>
+          <a:ext cx="869040" cy="829080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:AF932"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G46" activeCellId="1" sqref="B2:L2 G46"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2623,7 +2623,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="53" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Filipino"), _xlfn.CONCAT("  ", "Filipino ", Infos!F$2))</f>
-        <v>  Filipino</v>
+        <v>Filipino</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -2676,7 +2676,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "English"), _xlfn.CONCAT("  ", "English ", Infos!F$2))</f>
-        <v>  English</v>
+        <v>English</v>
       </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
@@ -2729,7 +2729,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Mathematics"), _xlfn.CONCAT("  ", "Mathematics ", Infos!F$2))</f>
-        <v>  Mathematics</v>
+        <v>Mathematics</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
@@ -2777,7 +2777,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Science"), _xlfn.CONCAT("  ", "Science ", Infos!F$2))</f>
-        <v>  Science</v>
+        <v>Science</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
@@ -2827,7 +2827,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Araling Panlipunan (AP)"), _xlfn.CONCAT("  ", "Araling Panlipunan (AP) ", Infos!F$2))</f>
-        <v>  Araling Panlipunan (AP)</v>
+        <v>Araling Panlipunan (AP)</v>
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
@@ -2877,7 +2877,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="59" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP)"), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP) ", Infos!F$2))</f>
-        <v>  Edukasyon sa Pagpapakatao (EsP)</v>
+        <v>Edukasyon sa Pagpapakatao (EsP)</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -2927,7 +2927,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="60" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Technology and Livelihood Education   (TLE)"), _xlfn.CONCAT("  ", "Technology and Livelihood Education          (TLE) ", Infos!F$2))</f>
-        <v>  Technology and Livelihood Education   (TLE)</v>
+        <v>Technology and Livelihood Education   (TLE)</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
@@ -2977,7 +2977,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "MAPEH"), _xlfn.CONCAT("  ", "MAPEH ", Infos!F$2))</f>
-        <v>  MAPEH</v>
+        <v>MAPEH</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -3027,7 +3027,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Music"), _xlfn.CONCAT("       ", "Music ", Infos!F$2))</f>
-        <v>       Music</v>
+        <v>Music</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -3075,7 +3075,7 @@
       <c r="A43" s="8"/>
       <c r="B43" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Arts"), _xlfn.CONCAT("       ", "Arts ", Infos!F$2))</f>
-        <v>       Arts</v>
+        <v>Arts</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
@@ -3125,7 +3125,7 @@
       <c r="A44" s="8"/>
       <c r="B44" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "PE"), _xlfn.CONCAT("       ", "PE ", Infos!F$2))</f>
-        <v>       PE</v>
+        <v>PE</v>
       </c>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
@@ -3173,7 +3173,7 @@
       <c r="A45" s="8"/>
       <c r="B45" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Health"), _xlfn.CONCAT("       ", "Health ", Infos!F$2))</f>
-        <v>       Health</v>
+        <v>Health</v>
       </c>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
@@ -33561,13 +33561,14 @@
   </sheetPr>
   <dimension ref="B1:L1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.83"/>
@@ -33629,13 +33630,14 @@
   </sheetPr>
   <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="4" style="83" width="9.14"/>
   </cols>

--- a/ecard-template.xlsx
+++ b/ecard-template.xlsx
@@ -1219,9 +1219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>497880</xdr:colOff>
+      <xdr:colOff>496800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1235,7 +1235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4914000" y="683640"/>
-          <a:ext cx="875160" cy="802440"/>
+          <a:ext cx="874080" cy="801360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,9 +1256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1272,7 +1272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1132560" y="709560"/>
-          <a:ext cx="869040" cy="829080"/>
+          <a:ext cx="867960" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,7 +1885,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="26" t="str">
-        <f aca="false">IF(ISBLANK(Infos!C2), "", Infos!C2)</f>
+        <f aca="false">IF(ISBLANK(Infos!B2), "", Infos!B2)</f>
         <v/>
       </c>
       <c r="D16" s="26"/>
@@ -1924,7 +1924,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="28" t="str">
-        <f aca="false">IF(ISBLANK(Infos!D2), "", Infos!D2)</f>
+        <f aca="false">IF(ISBLANK(Infos!C2), "", Infos!C2)</f>
         <v/>
       </c>
       <c r="D17" s="28"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="28" t="str">
-        <f aca="false">IF(ISBLANK(Infos!E2), "", Infos!E2)</f>
+        <f aca="false">IF(ISBLANK(Infos!D2), "", Infos!D2)</f>
         <v/>
       </c>
       <c r="I17" s="28"/>
@@ -1972,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="28" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F2), "", Infos!F2)</f>
+        <f aca="false">IF(ISBLANK(Infos!E2), "", Infos!E2)</f>
         <v/>
       </c>
       <c r="D18" s="28"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="28" t="str">
-        <f aca="false">IF(ISBLANK(Infos!G2), "", Infos!G2)</f>
+        <f aca="false">IF(ISBLANK(Infos!F2), "", Infos!F2)</f>
         <v/>
       </c>
       <c r="I18" s="28"/>
@@ -2016,7 +2016,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="32" t="str">
-        <f aca="false">IF(ISBLANK(Infos!H2), "", Infos!H2)</f>
+        <f aca="false">IF(ISBLANK(Infos!G2), "", Infos!G2)</f>
         <v/>
       </c>
       <c r="D19" s="32"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="28" t="str">
-        <f aca="false">IF(ISBLANK(Infos!I2), "", Infos!I2)</f>
+        <f aca="false">IF(ISBLANK(Infos!H2), "", Infos!H2)</f>
         <v/>
       </c>
       <c r="L19" s="27"/>
@@ -2287,7 +2287,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="36"/>
       <c r="H26" s="37" t="str">
-        <f aca="false">IF(ISBLANK(Infos!J2), "", Infos!J2)</f>
+        <f aca="false">IF(ISBLANK(Infos!I2), "", Infos!I2)</f>
         <v/>
       </c>
       <c r="I26" s="37"/>
@@ -2322,7 +2322,7 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="38" t="str">
-        <f aca="false">IF(ISBLANK(Infos!K2), "", Infos!K2)</f>
+        <f aca="false">IF(ISBLANK(Infos!J2), "", Infos!J2)</f>
         <v/>
       </c>
       <c r="C27" s="38"/>
@@ -2622,18 +2622,18 @@
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="53" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Filipino"), _xlfn.CONCAT("  ", "Filipino ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Filipino"), _xlfn.CONCAT("  ", "Filipino ", Infos!E$2))</f>
         <v>Filipino</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!D2), "", Grades!D2)</f>
+        <f aca="false">IF(ISBLANK(Grades!C2), "", Grades!C2)</f>
         <v/>
       </c>
       <c r="G34" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!D3), "", Grades!D3)</f>
+        <f aca="false">IF(ISBLANK(Grades!C3), "", Grades!C3)</f>
         <v/>
       </c>
       <c r="H34" s="54"/>
@@ -2675,18 +2675,18 @@
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "English"), _xlfn.CONCAT("  ", "English ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "English"), _xlfn.CONCAT("  ", "English ", Infos!E$2))</f>
         <v>English</v>
       </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!E2), "", Grades!E2)</f>
+        <f aca="false">IF(ISBLANK(Grades!D2), "", Grades!D2)</f>
         <v/>
       </c>
       <c r="G35" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!E3), "", Grades!E3)</f>
+        <f aca="false">IF(ISBLANK(Grades!D3), "", Grades!D3)</f>
         <v/>
       </c>
       <c r="H35" s="54"/>
@@ -2728,18 +2728,18 @@
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Mathematics"), _xlfn.CONCAT("  ", "Mathematics ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Mathematics"), _xlfn.CONCAT("  ", "Mathematics ", Infos!E$2))</f>
         <v>Mathematics</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!F2), "", Grades!F2)</f>
+        <f aca="false">IF(ISBLANK(Grades!E2), "", Grades!E2)</f>
         <v/>
       </c>
       <c r="G36" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!F3), "", Grades!F3)</f>
+        <f aca="false">IF(ISBLANK(Grades!E3), "", Grades!E3)</f>
         <v/>
       </c>
       <c r="H36" s="54"/>
@@ -2776,18 +2776,18 @@
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Science"), _xlfn.CONCAT("  ", "Science ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Science"), _xlfn.CONCAT("  ", "Science ", Infos!E$2))</f>
         <v>Science</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!G2), "", Grades!G2)</f>
+        <f aca="false">IF(ISBLANK(Grades!F2), "", Grades!F2)</f>
         <v/>
       </c>
       <c r="G37" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!G3), "", Grades!G3)</f>
+        <f aca="false">IF(ISBLANK(Grades!F3), "", Grades!F3)</f>
         <v/>
       </c>
       <c r="H37" s="54"/>
@@ -2826,18 +2826,18 @@
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Araling Panlipunan (AP)"), _xlfn.CONCAT("  ", "Araling Panlipunan (AP) ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Araling Panlipunan (AP)"), _xlfn.CONCAT("  ", "Araling Panlipunan (AP) ", Infos!E$2))</f>
         <v>Araling Panlipunan (AP)</v>
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!H2), "", Grades!H2)</f>
+        <f aca="false">IF(ISBLANK(Grades!G2), "", Grades!G2)</f>
         <v/>
       </c>
       <c r="G38" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!H3), "", Grades!H3)</f>
+        <f aca="false">IF(ISBLANK(Grades!G3), "", Grades!G3)</f>
         <v/>
       </c>
       <c r="H38" s="54"/>
@@ -2876,18 +2876,18 @@
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="59" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP)"), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP) ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP)"), _xlfn.CONCAT("  ", "Edukasyon sa Pagpapakatao (EsP) ", Infos!E$2))</f>
         <v>Edukasyon sa Pagpapakatao (EsP)</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!I2), "", Grades!I2)</f>
+        <f aca="false">IF(ISBLANK(Grades!H2), "", Grades!H2)</f>
         <v/>
       </c>
       <c r="G39" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!I3), "", Grades!I3)</f>
+        <f aca="false">IF(ISBLANK(Grades!H3), "", Grades!H3)</f>
         <v/>
       </c>
       <c r="H39" s="54"/>
@@ -2926,18 +2926,18 @@
     <row r="40" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="60" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "Technology and Livelihood Education   (TLE)"), _xlfn.CONCAT("  ", "Technology and Livelihood Education          (TLE) ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "Technology and Livelihood Education   (TLE)"), _xlfn.CONCAT("  ", "Technology and Livelihood Education          (TLE) ", Infos!E$2))</f>
         <v>Technology and Livelihood Education   (TLE)</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!J2), "", Grades!J2)</f>
+        <f aca="false">IF(ISBLANK(Grades!I2), "", Grades!I2)</f>
         <v/>
       </c>
       <c r="G40" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!J3), "", Grades!J3)</f>
+        <f aca="false">IF(ISBLANK(Grades!I3), "", Grades!I3)</f>
         <v/>
       </c>
       <c r="H40" s="54"/>
@@ -2976,18 +2976,18 @@
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("  ", "MAPEH"), _xlfn.CONCAT("  ", "MAPEH ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("  ", "MAPEH"), _xlfn.CONCAT("  ", "MAPEH ", Infos!E$2))</f>
         <v>MAPEH</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
       <c r="F41" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!K2), "", Grades!K2)</f>
+        <f aca="false">IF(ISBLANK(Grades!J2), "", Grades!J2)</f>
         <v/>
       </c>
       <c r="G41" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!K3), "", Grades!K3)</f>
+        <f aca="false">IF(ISBLANK(Grades!J3), "", Grades!J3)</f>
         <v/>
       </c>
       <c r="H41" s="54"/>
@@ -3026,18 +3026,18 @@
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Music"), _xlfn.CONCAT("       ", "Music ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("       ", "Music"), _xlfn.CONCAT("       ", "Music ", Infos!E$2))</f>
         <v>Music</v>
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!L2), "", Grades!L2)</f>
+        <f aca="false">IF(ISBLANK(Grades!K2), "", Grades!K2)</f>
         <v/>
       </c>
       <c r="G42" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!L3), "", Grades!L3)</f>
+        <f aca="false">IF(ISBLANK(Grades!K3), "", Grades!K3)</f>
         <v/>
       </c>
       <c r="H42" s="54"/>
@@ -3074,18 +3074,18 @@
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Arts"), _xlfn.CONCAT("       ", "Arts ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("       ", "Arts"), _xlfn.CONCAT("       ", "Arts ", Infos!E$2))</f>
         <v>Arts</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!M2), "", Grades!M2)</f>
+        <f aca="false">IF(ISBLANK(Grades!L2), "", Grades!L2)</f>
         <v/>
       </c>
       <c r="G43" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!M3), "", Grades!M3)</f>
+        <f aca="false">IF(ISBLANK(Grades!L3), "", Grades!L3)</f>
         <v/>
       </c>
       <c r="H43" s="54"/>
@@ -3124,18 +3124,18 @@
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "PE"), _xlfn.CONCAT("       ", "PE ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("       ", "PE"), _xlfn.CONCAT("       ", "PE ", Infos!E$2))</f>
         <v>PE</v>
       </c>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!N2), "", Grades!N2)</f>
+        <f aca="false">IF(ISBLANK(Grades!M2), "", Grades!M2)</f>
         <v/>
       </c>
       <c r="G44" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!N3), "", Grades!N3)</f>
+        <f aca="false">IF(ISBLANK(Grades!M3), "", Grades!M3)</f>
         <v/>
       </c>
       <c r="H44" s="54"/>
@@ -3172,18 +3172,18 @@
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="57" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), _xlfn.CONCAT("       ", "Health"), _xlfn.CONCAT("       ", "Health ", Infos!F$2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), _xlfn.CONCAT("       ", "Health"), _xlfn.CONCAT("       ", "Health ", Infos!E$2))</f>
         <v>Health</v>
       </c>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!O2), "", Grades!O2)</f>
+        <f aca="false">IF(ISBLANK(Grades!N2), "", Grades!N2)</f>
         <v/>
       </c>
       <c r="G45" s="54" t="str">
-        <f aca="false">IF(ISBLANK(Grades!O3), "", Grades!O3)</f>
+        <f aca="false">IF(ISBLANK(Grades!N3), "", Grades!N3)</f>
         <v/>
       </c>
       <c r="H45" s="54"/>
@@ -3689,7 +3689,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="78" t="str">
-        <f aca="false">IF(ISBLANK(Infos!F$2), "", _xlfn.CONCAT("Checked by: ", Infos!L2))</f>
+        <f aca="false">IF(ISBLANK(Infos!E$2), "", _xlfn.CONCAT("Checked by: ", Infos!K2))</f>
         <v/>
       </c>
       <c r="G58" s="78"/>
@@ -33559,56 +33559,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -33628,61 +33627,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="4" style="83" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="3" style="83" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="J1" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="L1" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="N1" s="83" t="s">
         <v>121</v>
       </c>
     </row>

--- a/ecard-template.xlsx
+++ b/ecard-template.xlsx
@@ -11,6 +11,8 @@
     <sheet name="Card" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Infos" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Grades" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Values" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Attendance" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Answer_" vbProcedure="false">#REF!</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                              </t>
   </si>
@@ -517,6 +519,99 @@
   <si>
     <t xml:space="preserve">HEALTH</t>
   </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakaDiyosB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakataoB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakalikasan4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakabansaB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schooldays:</t>
+  </si>
 </sst>
 </file>
 
@@ -524,10 +619,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,6 +784,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -837,7 +940,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -910,11 +1013,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,7 +1041,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,7 +1049,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,7 +1065,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,11 +1085,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1042,7 +1141,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,39 +1153,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1095,10 +1186,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,7 +1237,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,6 +1261,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,15 +1286,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495360</xdr:colOff>
+      <xdr:colOff>492840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1212,8 +1307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914000" y="723600"/>
-          <a:ext cx="871920" cy="816480"/>
+          <a:off x="4914360" y="723960"/>
+          <a:ext cx="869760" cy="798480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,15 +1323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>469800</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1249,8 +1344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="849960" y="749520"/>
-          <a:ext cx="1035000" cy="858240"/>
+          <a:off x="850320" y="749880"/>
+          <a:ext cx="1032480" cy="855720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,11 +1367,11 @@
   </sheetPr>
   <dimension ref="A1:AF932"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P27" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -1520,29 +1615,41 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
+      <c r="Y6" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!C2), "", Values!C2)</f>
+        <v/>
+      </c>
+      <c r="Z6" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!J2), "", Values!J2)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!Q2), "", Values!Q2)</f>
+        <v/>
+      </c>
+      <c r="AB6" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!X2), "", Values!X2)</f>
+        <v/>
+      </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="10"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1557,9 +1664,9 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="18"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
@@ -1567,18 +1674,18 @@
     </row>
     <row r="8" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="10"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1594,29 +1701,41 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
+      <c r="Y8" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!D2), "", Values!D2)</f>
+        <v/>
+      </c>
+      <c r="Z8" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!K2), "", Values!K2)</f>
+        <v/>
+      </c>
+      <c r="AA8" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!R2), "", Values!R2)</f>
+        <v/>
+      </c>
+      <c r="AB8" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!Y2), "", Values!Y2)</f>
+        <v/>
+      </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="10"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1631,9 +1750,9 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
@@ -1670,10 +1789,22 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
+      <c r="Y10" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!E2), "", Values!E2)</f>
+        <v/>
+      </c>
+      <c r="Z10" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!L2), "", Values!L2)</f>
+        <v/>
+      </c>
+      <c r="AA10" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!S2), "", Values!S2)</f>
+        <v/>
+      </c>
+      <c r="AB10" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!Z2), "", Values!Z2)</f>
+        <v/>
+      </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -1707,9 +1838,9 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="18"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1717,16 +1848,16 @@
     </row>
     <row r="12" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="10"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1742,10 +1873,22 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
+      <c r="Y12" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!F2), "", Values!F2)</f>
+        <v/>
+      </c>
+      <c r="Z12" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!M2), "", Values!M2)</f>
+        <v/>
+      </c>
+      <c r="AA12" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!T2), "", Values!T2)</f>
+        <v/>
+      </c>
+      <c r="AB12" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!AA2), "", Values!AA2)</f>
+        <v/>
+      </c>
       <c r="AC12" s="10"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -1753,16 +1896,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="10"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1777,9 +1920,9 @@
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
@@ -1787,16 +1930,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="10"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1814,10 +1957,22 @@
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
+      <c r="Y14" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!G2), "", Values!G2)</f>
+        <v/>
+      </c>
+      <c r="Z14" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!N2), "", Values!N2)</f>
+        <v/>
+      </c>
+      <c r="AA14" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!U2), "", Values!U2)</f>
+        <v/>
+      </c>
+      <c r="AB14" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!AB2), "", Values!AB2)</f>
+        <v/>
+      </c>
       <c r="AC14" s="10"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -1825,16 +1980,16 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="10"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1849,35 +2004,35 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f aca="false">IF(ISBLANK(Infos!B2), "", Infos!B2)</f>
         <v/>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -1888,40 +2043,40 @@
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="28" t="str">
+      <c r="C17" s="27" t="str">
         <f aca="false">IF(ISBLANK(Infos!C2), "", Infos!C2)</f>
         <v/>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28" t="str">
+      <c r="G17" s="28"/>
+      <c r="H17" s="27" t="str">
         <f aca="false">IF(ISBLANK(Infos!D2), "", Infos!D2)</f>
         <v/>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="16" t="s">
         <v>24</v>
       </c>
@@ -1935,41 +2090,53 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30" t="s">
+      <c r="Y17" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!H2), "", Values!H2)</f>
+        <v/>
+      </c>
+      <c r="Z17" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!O2), "", Values!O2)</f>
+        <v/>
+      </c>
+      <c r="AA17" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!V2), "", Values!V2)</f>
+        <v/>
+      </c>
+      <c r="AB17" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!AC2), "", Values!AC2)</f>
+        <v/>
+      </c>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="28" t="str">
+      <c r="C18" s="27" t="str">
         <f aca="false">IF(ISBLANK(Infos!E2), "", Infos!E2)</f>
         <v/>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="31" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="28" t="str">
+      <c r="G18" s="30"/>
+      <c r="H18" s="27" t="str">
         <f aca="false">IF(ISBLANK(Infos!F2), "", Infos!F2)</f>
         <v/>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
@@ -1980,40 +2147,40 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25" t="s">
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="32" t="str">
+      <c r="C19" s="31" t="str">
         <f aca="false">IF(ISBLANK(Infos!G2), "", Infos!G2)</f>
         <v/>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="29" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28" t="str">
+      <c r="J19" s="28"/>
+      <c r="K19" s="27" t="str">
         <f aca="false">IF(ISBLANK(Infos!H2), "", Infos!H2)</f>
         <v/>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2024,13 +2191,13 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -2059,10 +2226,22 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
+      <c r="Y20" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!I2), "", Values!I2)</f>
+        <v/>
+      </c>
+      <c r="Z20" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!P2), "", Values!P2)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!W2), "", Values!W2)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="18" t="str">
+        <f aca="false">IF(ISBLANK(Values!AD2), "", Values!AD2)</f>
+        <v/>
+      </c>
       <c r="AC20" s="10"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -2096,9 +2275,9 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
@@ -2132,9 +2311,9 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -2194,23 +2373,23 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="34" t="s">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33" t="s">
+      <c r="R24" s="33"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
@@ -2235,10 +2414,10 @@
       <c r="N25" s="4"/>
       <c r="O25" s="8"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="35" t="s">
+      <c r="Q25" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="35"/>
+      <c r="R25" s="34"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
@@ -2263,23 +2442,23 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37" t="str">
+      <c r="G26" s="35"/>
+      <c r="H26" s="36" t="str">
         <f aca="false">IF(ISBLANK(Infos!I2), "", Infos!I2)</f>
         <v/>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="10"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="8"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="34"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5" t="s">
@@ -2299,30 +2478,30 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="38" t="str">
+      <c r="B27" s="37" t="str">
         <f aca="false">IF(ISBLANK(Infos!J2), "", Infos!J2)</f>
         <v/>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="10"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="8"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="35"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="s">
@@ -2342,13 +2521,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2359,10 +2538,10 @@
       <c r="N28" s="4"/>
       <c r="O28" s="8"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="35" t="s">
+      <c r="Q28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="35"/>
+      <c r="R28" s="34"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5" t="s">
@@ -2416,23 +2595,23 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="10"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="41" t="s">
+      <c r="P30" s="40" t="s">
         <v>49</v>
       </c>
       <c r="Q30" s="5"/>
@@ -2468,7 +2647,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="41"/>
+      <c r="P31" s="40"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -2488,63 +2667,63 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44" t="s">
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="41" t="s">
         <v>52</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46" t="s">
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="46" t="s">
+      <c r="T32" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="U32" s="46" t="s">
+      <c r="U32" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="V32" s="46" t="s">
+      <c r="V32" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="46" t="s">
+      <c r="W32" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="X32" s="46" t="s">
+      <c r="X32" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y32" s="46" t="s">
+      <c r="Y32" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="Z32" s="47" t="s">
+      <c r="Z32" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AA32" s="47" t="s">
+      <c r="AA32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AB32" s="48"/>
+      <c r="AB32" s="47"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
@@ -2552,41 +2731,71 @@
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="49" t="n">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="49" t="n">
+      <c r="G33" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="49" t="n">
+      <c r="H33" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="I33" s="49" t="n">
+      <c r="I33" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="10"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="50" t="s">
+      <c r="P33" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="51"/>
+      <c r="Q33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!C1), "",  Attendance!C1)</f>
+        <v/>
+      </c>
+      <c r="R33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!D1), "",  Attendance!D1)</f>
+        <v/>
+      </c>
+      <c r="S33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!E1), "",  Attendance!E1)</f>
+        <v/>
+      </c>
+      <c r="T33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!F1), "",  Attendance!F1)</f>
+        <v/>
+      </c>
+      <c r="U33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!G1), "",  Attendance!G1)</f>
+        <v/>
+      </c>
+      <c r="V33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!H1), "",  Attendance!H1)</f>
+        <v/>
+      </c>
+      <c r="W33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!I1), "",  Attendance!I1)</f>
+        <v/>
+      </c>
+      <c r="X33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!J1), "",  Attendance!J1)</f>
+        <v/>
+      </c>
+      <c r="Y33" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!K1), "",  Attendance!K1)</f>
+        <v/>
+      </c>
+      <c r="Z33" s="51" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!L1), "",  Attendance!L1)</f>
+        <v/>
+      </c>
       <c r="AA33" s="51" t="n">
         <f aca="false">SUM(Q33:Z33)</f>
         <v>0</v>
@@ -2622,11 +2831,11 @@
         <f aca="false">IF(ISBLANK(Grades!C5), "", Grades!C5)</f>
         <v/>
       </c>
-      <c r="J34" s="55" t="str">
+      <c r="J34" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F34+G34+H34+I34)/4,0)), "", ROUND((F34+G34+H34+I34)/4,0))</f>
         <v/>
       </c>
-      <c r="K34" s="56" t="str">
+      <c r="K34" s="18" t="str">
         <f aca="false">IF(J34="", "", IF(J34&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2634,19 +2843,49 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="50" t="s">
+      <c r="P34" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="51"/>
+      <c r="Q34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!C3), "",  Attendance!C3)</f>
+        <v/>
+      </c>
+      <c r="R34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!D3), "",  Attendance!D3)</f>
+        <v/>
+      </c>
+      <c r="S34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!E3), "",  Attendance!E3)</f>
+        <v/>
+      </c>
+      <c r="T34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!F3), "",  Attendance!F3)</f>
+        <v/>
+      </c>
+      <c r="U34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!G3), "",  Attendance!G3)</f>
+        <v/>
+      </c>
+      <c r="V34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!H3), "",  Attendance!H3)</f>
+        <v/>
+      </c>
+      <c r="W34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!I3), "",  Attendance!I3)</f>
+        <v/>
+      </c>
+      <c r="X34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!J3), "",  Attendance!J3)</f>
+        <v/>
+      </c>
+      <c r="Y34" s="50" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!K3), "",  Attendance!K3)</f>
+        <v/>
+      </c>
+      <c r="Z34" s="51" t="str">
+        <f aca="false">IF(ISBLANK(Attendance!L3), "",  Attendance!L3)</f>
+        <v/>
+      </c>
       <c r="AA34" s="51" t="n">
         <f aca="false">SUM(Q34:Z34)</f>
         <v>0</v>
@@ -2659,13 +2898,13 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
-      <c r="B35" s="57" t="str">
+      <c r="B35" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "English"), CONCATENATE("  ", "English ", Infos!E$2))</f>
         <v>English</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!D2), "", Grades!D2)</f>
         <v/>
@@ -2678,15 +2917,15 @@
         <f aca="false">IF(ISBLANK(Grades!D4), "", Grades!D4)</f>
         <v/>
       </c>
-      <c r="I35" s="58" t="str">
+      <c r="I35" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!D5), "", Grades!D5)</f>
         <v/>
       </c>
-      <c r="J35" s="55" t="str">
+      <c r="J35" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F35+G35+H35+I35)/4,0)), "", ROUND((F35+G35+H35+I35)/4,0))</f>
         <v/>
       </c>
-      <c r="K35" s="56" t="str">
+      <c r="K35" s="18" t="str">
         <f aca="false">IF(J35="", "", IF(J35&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2694,19 +2933,49 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="50" t="s">
+      <c r="P35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="51"/>
+      <c r="Q35" s="50" t="str">
+        <f aca="false">IF(Q33="", "", Q33-Q34)</f>
+        <v/>
+      </c>
+      <c r="R35" s="50" t="str">
+        <f aca="false">IF(R33="", "", R33-R34)</f>
+        <v/>
+      </c>
+      <c r="S35" s="50" t="str">
+        <f aca="false">IF(S33="", "", S33-S34)</f>
+        <v/>
+      </c>
+      <c r="T35" s="50" t="str">
+        <f aca="false">IF(T33="", "", T33-T34)</f>
+        <v/>
+      </c>
+      <c r="U35" s="50" t="str">
+        <f aca="false">IF(U33="", "", U33-U34)</f>
+        <v/>
+      </c>
+      <c r="V35" s="50" t="str">
+        <f aca="false">IF(V33="", "", V33-V34)</f>
+        <v/>
+      </c>
+      <c r="W35" s="50" t="str">
+        <f aca="false">IF(W33="", "", W33-W34)</f>
+        <v/>
+      </c>
+      <c r="X35" s="50" t="str">
+        <f aca="false">IF(X33="", "", X33-X34)</f>
+        <v/>
+      </c>
+      <c r="Y35" s="50" t="str">
+        <f aca="false">IF(Y33="", "", Y33-Y34)</f>
+        <v/>
+      </c>
+      <c r="Z35" s="51" t="str">
+        <f aca="false">IF(Z33="", "", Z33-Z34)</f>
+        <v/>
+      </c>
       <c r="AA35" s="51" t="n">
         <f aca="false">SUM(Q35:Z35)</f>
         <v>0</v>
@@ -2719,13 +2988,13 @@
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
-      <c r="B36" s="57" t="str">
+      <c r="B36" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "Mathematics"), CONCATENATE("  ", "Mathematics ", Infos!E$2))</f>
         <v>Mathematics</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!E2), "", Grades!E2)</f>
         <v/>
@@ -2738,15 +3007,15 @@
         <f aca="false">IF(ISBLANK(Grades!E4), "", Grades!E4)</f>
         <v/>
       </c>
-      <c r="I36" s="58" t="str">
+      <c r="I36" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!E5), "", Grades!E5)</f>
         <v/>
       </c>
-      <c r="J36" s="55" t="str">
+      <c r="J36" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F36+G36+H36+I36)/4,0)), "", ROUND((F36+G36+H36+I36)/4,0))</f>
         <v/>
       </c>
-      <c r="K36" s="56" t="str">
+      <c r="K36" s="18" t="str">
         <f aca="false">IF(J36="", "", IF(J36&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2774,13 +3043,13 @@
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="57" t="str">
+      <c r="B37" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "Science"), CONCATENATE("  ", "Science ", Infos!E$2))</f>
         <v>Science</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!F2), "", Grades!F2)</f>
         <v/>
@@ -2793,15 +3062,15 @@
         <f aca="false">IF(ISBLANK(Grades!F4), "", Grades!F4)</f>
         <v/>
       </c>
-      <c r="I37" s="58" t="str">
+      <c r="I37" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!F5), "", Grades!F5)</f>
         <v/>
       </c>
-      <c r="J37" s="55" t="str">
+      <c r="J37" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F37+G37+H37+I37)/4,0)), "", ROUND((F37+G37+H37+I37)/4,0))</f>
         <v/>
       </c>
-      <c r="K37" s="56" t="str">
+      <c r="K37" s="18" t="str">
         <f aca="false">IF(J37="", "", IF(J37&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2809,7 +3078,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q37" s="5"/>
@@ -2831,13 +3100,13 @@
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="B38" s="57" t="str">
+      <c r="B38" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "Araling Panlipunan (AP)"), CONCATENATE("  ", "Araling Panlipunan (AP) ", Infos!E$2))</f>
         <v>Araling Panlipunan (AP)</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!G2), "", Grades!G2)</f>
         <v/>
@@ -2850,15 +3119,15 @@
         <f aca="false">IF(ISBLANK(Grades!G4), "", Grades!G4)</f>
         <v/>
       </c>
-      <c r="I38" s="58" t="str">
+      <c r="I38" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!G5), "", Grades!G5)</f>
         <v/>
       </c>
-      <c r="J38" s="55" t="str">
+      <c r="J38" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F38+G38+H38+I38)/4,0)), "", ROUND((F38+G38+H38+I38)/4,0))</f>
         <v/>
       </c>
-      <c r="K38" s="56" t="str">
+      <c r="K38" s="18" t="str">
         <f aca="false">IF(J38="", "", IF(J38&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2870,15 +3139,15 @@
         <v>68</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="10"/>
@@ -2888,13 +3157,13 @@
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
-      <c r="B39" s="60" t="str">
+      <c r="B39" s="57" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "Edukasyon sa Pagpapakatao (EsP)"), CONCATENATE("  ", "Edukasyon sa Pagpapakatao (EsP) ", Infos!E$2))</f>
         <v>Edukasyon sa Pagpapakatao (EsP)</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!H2), "", Grades!H2)</f>
         <v/>
@@ -2907,15 +3176,15 @@
         <f aca="false">IF(ISBLANK(Grades!H4), "", Grades!H4)</f>
         <v/>
       </c>
-      <c r="I39" s="58" t="str">
+      <c r="I39" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!H5), "", Grades!H5)</f>
         <v/>
       </c>
-      <c r="J39" s="55" t="str">
+      <c r="J39" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F39+G39+H39+I39)/4,0)), "", ROUND((F39+G39+H39+I39)/4,0))</f>
         <v/>
       </c>
-      <c r="K39" s="56" t="str">
+      <c r="K39" s="18" t="str">
         <f aca="false">IF(J39="", "", IF(J39&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2927,15 +3196,15 @@
         <v>69</v>
       </c>
       <c r="Q39" s="5"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="10"/>
@@ -2945,13 +3214,13 @@
     </row>
     <row r="40" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
-      <c r="B40" s="61" t="str">
+      <c r="B40" s="58" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "Technology and Livelihood Education   (TLE)"), CONCATENATE("  ", "Technology and Livelihood Education          (TLE) ", Infos!E$2))</f>
         <v>Technology and Livelihood Education   (TLE)</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!I2), "", Grades!I2)</f>
         <v/>
@@ -2964,15 +3233,15 @@
         <f aca="false">IF(ISBLANK(Grades!I4), "", Grades!I4)</f>
         <v/>
       </c>
-      <c r="I40" s="58" t="str">
+      <c r="I40" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!I5), "", Grades!I5)</f>
         <v/>
       </c>
-      <c r="J40" s="55" t="str">
+      <c r="J40" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F40+G40+H40+I40)/4,0)), "", ROUND((F40+G40+H40+I40)/4,0))</f>
         <v/>
       </c>
-      <c r="K40" s="56" t="str">
+      <c r="K40" s="18" t="str">
         <f aca="false">IF(J40="", "", IF(J40&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -2984,15 +3253,15 @@
         <v>70</v>
       </c>
       <c r="Q40" s="5"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="10"/>
@@ -3002,13 +3271,13 @@
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
-      <c r="B41" s="57" t="str">
+      <c r="B41" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("  ", "MAPEH"), CONCATENATE("  ", "MAPEH ", Infos!E$2))</f>
         <v>MAPEH</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!J2), "", Grades!J2)</f>
         <v/>
@@ -3021,15 +3290,15 @@
         <f aca="false">IF(ISBLANK(Grades!J4), "", Grades!J4)</f>
         <v/>
       </c>
-      <c r="I41" s="58" t="str">
+      <c r="I41" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!J5), "", Grades!J5)</f>
         <v/>
       </c>
-      <c r="J41" s="55" t="str">
+      <c r="J41" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F41+G41+H41+I41)/4,0)), "", ROUND((F41+G41+H41+I41)/4,0))</f>
         <v/>
       </c>
-      <c r="K41" s="56" t="str">
+      <c r="K41" s="18" t="str">
         <f aca="false">IF(J41="", "", IF(J41&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -3041,15 +3310,15 @@
         <v>71</v>
       </c>
       <c r="Q41" s="5"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="10"/>
@@ -3059,13 +3328,13 @@
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
-      <c r="B42" s="57" t="str">
+      <c r="B42" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("       ", "Music"), CONCATENATE("       ", "Music ", Infos!E$2))</f>
         <v>Music</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!K2), "", Grades!K2)</f>
         <v/>
@@ -3078,15 +3347,15 @@
         <f aca="false">IF(ISBLANK(Grades!K4), "", Grades!K4)</f>
         <v/>
       </c>
-      <c r="I42" s="58" t="str">
+      <c r="I42" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!K5), "", Grades!K5)</f>
         <v/>
       </c>
-      <c r="J42" s="55" t="str">
+      <c r="J42" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F42+G42+H42+I42)/4,0)), "", ROUND((F42+G42+H42+I42)/4,0))</f>
         <v/>
       </c>
-      <c r="K42" s="56" t="str">
+      <c r="K42" s="18" t="str">
         <f aca="false">IF(J42="", "", IF(J42&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -3114,13 +3383,13 @@
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="B43" s="57" t="str">
+      <c r="B43" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("       ", "Arts"), CONCATENATE("       ", "Arts ", Infos!E$2))</f>
         <v>Arts</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!L2), "", Grades!L2)</f>
         <v/>
@@ -3133,15 +3402,15 @@
         <f aca="false">IF(ISBLANK(Grades!L4), "", Grades!L4)</f>
         <v/>
       </c>
-      <c r="I43" s="58" t="str">
+      <c r="I43" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!L5), "", Grades!L5)</f>
         <v/>
       </c>
-      <c r="J43" s="55" t="str">
+      <c r="J43" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F43+G43+H43+I43)/4,0)), "", ROUND((F43+G43+H43+I43)/4,0))</f>
         <v/>
       </c>
-      <c r="K43" s="56" t="str">
+      <c r="K43" s="18" t="str">
         <f aca="false">IF(J43="", "", IF(J43&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -3149,21 +3418,21 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
       <c r="AC43" s="10"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
@@ -3171,13 +3440,13 @@
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
-      <c r="B44" s="57" t="str">
+      <c r="B44" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("       ", "PE"), CONCATENATE("       ", "PE ", Infos!E$2))</f>
         <v>PE</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!M2), "", Grades!M2)</f>
         <v/>
@@ -3190,15 +3459,15 @@
         <f aca="false">IF(ISBLANK(Grades!M4), "", Grades!M4)</f>
         <v/>
       </c>
-      <c r="I44" s="58" t="str">
+      <c r="I44" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!M5), "", Grades!M5)</f>
         <v/>
       </c>
-      <c r="J44" s="55" t="str">
+      <c r="J44" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F44+G44+H44+I44)/4,0)), "", ROUND((F44+G44+H44+I44)/4,0))</f>
         <v/>
       </c>
-      <c r="K44" s="56" t="str">
+      <c r="K44" s="18" t="str">
         <f aca="false">IF(J44="", "", IF(J44&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -3226,13 +3495,13 @@
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
-      <c r="B45" s="57" t="str">
+      <c r="B45" s="55" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), CONCATENATE("       ", "Health"), CONCATENATE("       ", "Health ", Infos!E$2))</f>
         <v>Health</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!N2), "", Grades!N2)</f>
         <v/>
@@ -3245,15 +3514,15 @@
         <f aca="false">IF(ISBLANK(Grades!N4), "", Grades!N4)</f>
         <v/>
       </c>
-      <c r="I45" s="58" t="str">
+      <c r="I45" s="54" t="str">
         <f aca="false">IF(ISBLANK(Grades!N5), "", Grades!N5)</f>
         <v/>
       </c>
-      <c r="J45" s="55" t="str">
+      <c r="J45" s="50" t="str">
         <f aca="false">IF(ISERROR(ROUND((F45+G45+H45+I45)/4,0)), "", ROUND((F45+G45+H45+I45)/4,0))</f>
         <v/>
       </c>
-      <c r="K45" s="56" t="str">
+      <c r="K45" s="18" t="str">
         <f aca="false">IF(J45="", "", IF(J45&lt;75, "Failed", "Passed"))</f>
         <v/>
       </c>
@@ -3285,16 +3554,16 @@
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="56"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="10"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3321,16 +3590,16 @@
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="63"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="60"/>
       <c r="L47" s="10"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3361,17 +3630,17 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65" t="str">
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="51" t="str">
         <f aca="false">IF(ISERROR(ROUND((J34+J35+J36+J37+J38+J39+J40+J41)/8,0)), "", ROUND((J34+J35+J36+J37+J38+J39+J40+J41)/8,0))</f>
         <v/>
       </c>
-      <c r="K48" s="55" t="str">
+      <c r="K48" s="50" t="str">
         <f aca="false">IF(J48="", "", IF(J48&lt;75, "RETAINED", "PROMOTED"))</f>
         <v/>
       </c>
@@ -3413,19 +3682,19 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="66"/>
-      <c r="S49" s="66"/>
-      <c r="T49" s="66"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="64"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
@@ -3433,43 +3702,43 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70" t="s">
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="70"/>
+      <c r="K50" s="66"/>
       <c r="L50" s="10"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="41"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="40"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="39" t="s">
+      <c r="X50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
@@ -3477,39 +3746,39 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="67" t="s">
         <v>83</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K51" s="72"/>
+      <c r="K51" s="68"/>
       <c r="L51" s="10"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
@@ -3517,41 +3786,41 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="67" t="s">
         <v>86</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K52" s="72"/>
+      <c r="K52" s="68"/>
       <c r="L52" s="10"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="74" t="s">
+      <c r="P52" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="74"/>
-      <c r="T52" s="74"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
@@ -3559,39 +3828,39 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="71" t="s">
+      <c r="G53" s="67" t="s">
         <v>89</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="72" t="s">
+      <c r="J53" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K53" s="72"/>
+      <c r="K53" s="68"/>
       <c r="L53" s="10"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="73"/>
-      <c r="AB53" s="73"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
@@ -3599,41 +3868,41 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="67" t="s">
         <v>91</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="K54" s="72"/>
+      <c r="K54" s="68"/>
       <c r="L54" s="10"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="73" t="s">
+      <c r="P54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="69"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="69"/>
+      <c r="AA54" s="69"/>
+      <c r="AB54" s="69"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
@@ -3641,41 +3910,41 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="71" t="s">
+      <c r="G55" s="67" t="s">
         <v>94</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="K55" s="72"/>
+      <c r="K55" s="68"/>
       <c r="L55" s="10"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="73" t="s">
+      <c r="P55" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="66"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
@@ -3683,35 +3952,35 @@
     </row>
     <row r="56" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="71"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
       <c r="L56" s="10"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="40" t="s">
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="40"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
@@ -3727,19 +3996,19 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
@@ -3751,15 +4020,15 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="78" t="str">
+      <c r="F58" s="74" t="str">
         <f aca="false">IF(ISBLANK(Infos!E$2), "", CONCATENATE("Checked by: ", Infos!K2))</f>
         <v/>
       </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
       <c r="L58" s="10"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -3783,35 +4052,35 @@
       <c r="AF58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="79"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="81"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="77"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="82"/>
-      <c r="Y59" s="82"/>
-      <c r="Z59" s="82"/>
-      <c r="AA59" s="82"/>
-      <c r="AB59" s="82"/>
-      <c r="AC59" s="81"/>
+      <c r="O59" s="75"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="77"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
@@ -33624,11 +33893,11 @@
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.72"/>
@@ -33690,17 +33959,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="3" style="83" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="3" style="79" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33710,43 +33979,292 @@
       <c r="B1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="79" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="13.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="80" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC1" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD1" s="80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="13.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="80" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" s="80" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
